--- a/レジシステム設計書/要件定義書.xlsx
+++ b/レジシステム設計書/要件定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t xml:space="preserve">株式会社アドライン</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">初版作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">関野</t>
   </si>
   <si>
     <t xml:space="preserve">記述様式（記号説明）</t>
@@ -556,7 +559,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -570,10 +573,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -625,10 +624,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -790,14 +785,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -869,9 +856,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>142560</xdr:colOff>
+      <xdr:colOff>142200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -881,7 +868,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7226280" y="295200"/>
-          <a:ext cx="699840" cy="161640"/>
+          <a:ext cx="699480" cy="161280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -939,9 +926,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -951,7 +938,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7926840" y="295200"/>
-          <a:ext cx="873720" cy="161640"/>
+          <a:ext cx="873360" cy="161280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -990,7 +977,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>2005/5/15</a:t>
+            <a:t>2021/02/05</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1009,9 +996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>9720</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1021,7 +1008,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7808040" y="1275120"/>
-          <a:ext cx="561960" cy="466920"/>
+          <a:ext cx="561600" cy="466560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,7 +1047,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>岩岬</a:t>
+            <a:t>関野</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1079,9 +1066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
+      <xdr:colOff>284400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1091,7 +1078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8371440" y="1275120"/>
-          <a:ext cx="561960" cy="466920"/>
+          <a:ext cx="561600" cy="466560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1112,31 +1099,6 @@
         <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="20160" rIns="20160" tIns="20160" bIns="20160">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>渡辺</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1149,9 +1111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
+      <xdr:colOff>284400</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1161,7 +1123,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8371440" y="1038240"/>
-          <a:ext cx="561960" cy="235800"/>
+          <a:ext cx="561600" cy="235440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1219,9 +1181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>9720</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1231,7 +1193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7808040" y="1038240"/>
-          <a:ext cx="561960" cy="235800"/>
+          <a:ext cx="561600" cy="235440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1289,9 +1251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>33120</xdr:colOff>
+      <xdr:colOff>32760</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1301,7 +1263,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7254720" y="1275120"/>
-          <a:ext cx="561960" cy="466920"/>
+          <a:ext cx="561600" cy="466560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1340,7 +1302,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>梅田</a:t>
+            <a:t>関野</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1359,9 +1321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>33120</xdr:colOff>
+      <xdr:colOff>32760</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1371,7 +1333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7254720" y="1038240"/>
-          <a:ext cx="561960" cy="235800"/>
+          <a:ext cx="561600" cy="235440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1434,9 +1396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>156600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>514080</xdr:rowOff>
+      <xdr:rowOff>513720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1445,8 +1407,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2118240" y="599760"/>
-          <a:ext cx="866520" cy="390240"/>
+          <a:off x="2118960" y="599760"/>
+          <a:ext cx="866160" cy="389880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1541,9 +1503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1094760</xdr:colOff>
+      <xdr:colOff>1094400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>514080</xdr:rowOff>
+      <xdr:rowOff>513720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1552,8 +1514,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1260720" y="552240"/>
-          <a:ext cx="837720" cy="437760"/>
+          <a:off x="1261440" y="552240"/>
+          <a:ext cx="837360" cy="437400"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -1613,9 +1575,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1218960</xdr:colOff>
+      <xdr:colOff>1218600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>475920</xdr:rowOff>
+      <xdr:rowOff>475560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1624,8 +1586,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1194120" y="1180800"/>
-          <a:ext cx="1028520" cy="333000"/>
+          <a:off x="1194840" y="1180800"/>
+          <a:ext cx="1028160" cy="332640"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartInputOutput">
           <a:avLst/>
@@ -1683,9 +1645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1171440</xdr:colOff>
+      <xdr:colOff>1171080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>533160</xdr:rowOff>
+      <xdr:rowOff>532800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1694,8 +1656,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1222920" y="1743120"/>
-          <a:ext cx="952200" cy="418680"/>
+          <a:off x="1223640" y="1743120"/>
+          <a:ext cx="951840" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -1753,9 +1715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1152360</xdr:colOff>
+      <xdr:colOff>1152000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>504360</xdr:rowOff>
+      <xdr:rowOff>504000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1764,8 +1726,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1222920" y="2285640"/>
-          <a:ext cx="933120" cy="437760"/>
+          <a:off x="1223640" y="2285640"/>
+          <a:ext cx="932760" cy="437400"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -1825,9 +1787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1132920</xdr:colOff>
+      <xdr:colOff>1132560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>533160</xdr:rowOff>
+      <xdr:rowOff>532800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1836,8 +1798,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1241640" y="2895480"/>
-          <a:ext cx="894960" cy="418680"/>
+          <a:off x="1242360" y="2895480"/>
+          <a:ext cx="894600" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1895,9 +1857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1142640</xdr:colOff>
+      <xdr:colOff>1142280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>447480</xdr:rowOff>
+      <xdr:rowOff>447120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1906,8 +1868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1241640" y="3448080"/>
-          <a:ext cx="904680" cy="352080"/>
+          <a:off x="1242360" y="3448080"/>
+          <a:ext cx="904320" cy="351720"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -1965,9 +1927,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1180800</xdr:colOff>
+      <xdr:colOff>1180440</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>514080</xdr:rowOff>
+      <xdr:rowOff>513720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1976,8 +1938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1194120" y="3962520"/>
-          <a:ext cx="990360" cy="399600"/>
+          <a:off x="1194840" y="3962520"/>
+          <a:ext cx="990000" cy="399240"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -2035,9 +1997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>828360</xdr:colOff>
+      <xdr:colOff>828000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1361880</xdr:rowOff>
+      <xdr:rowOff>1361520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2050,8 +2012,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1289520" y="5200560"/>
-          <a:ext cx="542520" cy="580680"/>
+          <a:off x="1290240" y="5200560"/>
+          <a:ext cx="542160" cy="580320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2072,9 +2034,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1638000</xdr:colOff>
+      <xdr:colOff>1637640</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2123640</xdr:rowOff>
+      <xdr:rowOff>2123280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2087,8 +2049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2022840" y="5962320"/>
-          <a:ext cx="618840" cy="580680"/>
+          <a:off x="2023560" y="5962320"/>
+          <a:ext cx="618480" cy="580320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2109,9 +2071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1676160</xdr:colOff>
+      <xdr:colOff>1675800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1352160</xdr:rowOff>
+      <xdr:rowOff>1351800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2124,8 +2086,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2032560" y="5314680"/>
-          <a:ext cx="647280" cy="456840"/>
+          <a:off x="2033280" y="5314680"/>
+          <a:ext cx="646920" cy="456480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2146,9 +2108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1599840</xdr:colOff>
+      <xdr:colOff>1599480</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>695160</xdr:rowOff>
+      <xdr:rowOff>694800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2161,8 +2123,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2022840" y="4581360"/>
-          <a:ext cx="580680" cy="533160"/>
+          <a:off x="2023560" y="4581360"/>
+          <a:ext cx="580320" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2183,9 +2145,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1438200</xdr:colOff>
+      <xdr:colOff>1437840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2857320</xdr:rowOff>
+      <xdr:rowOff>2856960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2198,8 +2160,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2099160" y="6781680"/>
-          <a:ext cx="342720" cy="495000"/>
+          <a:off x="2099880" y="6781680"/>
+          <a:ext cx="342360" cy="494640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2220,9 +2182,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>780480</xdr:colOff>
+      <xdr:colOff>780120</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>637920</xdr:rowOff>
+      <xdr:rowOff>637560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2235,8 +2197,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1241640" y="4628880"/>
-          <a:ext cx="542520" cy="428400"/>
+          <a:off x="1242360" y="4628880"/>
+          <a:ext cx="542160" cy="428040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2257,9 +2219,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>761400</xdr:colOff>
+      <xdr:colOff>761040</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2828520</xdr:rowOff>
+      <xdr:rowOff>2828160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2272,8 +2234,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1175040" y="6857640"/>
-          <a:ext cx="590040" cy="390240"/>
+          <a:off x="1175760" y="6857640"/>
+          <a:ext cx="589680" cy="389880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2294,9 +2256,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>732960</xdr:colOff>
+      <xdr:colOff>732600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2114280</xdr:rowOff>
+      <xdr:rowOff>2113920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2309,8 +2271,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1175040" y="6019560"/>
-          <a:ext cx="561600" cy="514080"/>
+          <a:off x="1175760" y="6019560"/>
+          <a:ext cx="561240" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2374,9 +2336,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1152360</xdr:colOff>
+      <xdr:colOff>1152000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>495000</xdr:rowOff>
+      <xdr:rowOff>494640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2386,7 +2348,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6461640" y="1152360"/>
-          <a:ext cx="1028520" cy="380520"/>
+          <a:ext cx="1028160" cy="380160"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -2419,9 +2381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>732960</xdr:colOff>
+      <xdr:colOff>732600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>418680</xdr:rowOff>
+      <xdr:rowOff>418320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2431,7 +2393,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6814080" y="1790640"/>
-          <a:ext cx="256680" cy="256680"/>
+          <a:ext cx="256320" cy="256320"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2482,16 +2444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1190520</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297360</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>66600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>297360</xdr:colOff>
+      <xdr:colOff>601560</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>371160</xdr:rowOff>
+      <xdr:rowOff>456840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2500,8 +2462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7180920" y="2328480"/>
-          <a:ext cx="390240" cy="304560"/>
+          <a:off x="7571520" y="2242440"/>
+          <a:ext cx="304200" cy="390240"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst>
@@ -2653,9 +2615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>28080</xdr:colOff>
+      <xdr:colOff>27720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2665,7 +2627,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4640760" y="1181160"/>
-          <a:ext cx="864720" cy="342360"/>
+          <a:ext cx="864360" cy="342000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2720,9 +2682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286920</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2732,7 +2694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="604080" y="3476160"/>
-          <a:ext cx="836280" cy="485280"/>
+          <a:ext cx="835920" cy="484920"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2790,9 +2752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>37800</xdr:colOff>
+      <xdr:colOff>37440</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2802,7 +2764,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="642960" y="1780920"/>
-          <a:ext cx="836280" cy="485280"/>
+          <a:ext cx="835920" cy="484920"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2860,9 +2822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:colOff>38520</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2872,7 +2834,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2612160" y="3619440"/>
-          <a:ext cx="885960" cy="399600"/>
+          <a:ext cx="885600" cy="399240"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -2930,9 +2892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>10080</xdr:colOff>
+      <xdr:colOff>9720</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2942,7 +2904,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="83520" y="2571120"/>
-          <a:ext cx="1079640" cy="285480"/>
+          <a:ext cx="1079280" cy="285120"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3017,9 +2979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>47160</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3029,7 +2991,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2594520" y="1143000"/>
-          <a:ext cx="911880" cy="399600"/>
+          <a:ext cx="911520" cy="399240"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -3217,9 +3179,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>269640</xdr:colOff>
+      <xdr:colOff>269280</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3229,7 +3191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="586440" y="4619160"/>
-          <a:ext cx="836280" cy="485280"/>
+          <a:ext cx="835920" cy="484920"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3287,9 +3249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3299,7 +3261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2575080" y="4676400"/>
-          <a:ext cx="885960" cy="399600"/>
+          <a:ext cx="885600" cy="399240"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -3441,9 +3403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>278280</xdr:colOff>
+      <xdr:colOff>277920</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3453,7 +3415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4602600" y="4677120"/>
-          <a:ext cx="864720" cy="409320"/>
+          <a:ext cx="864360" cy="408960"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3581,1632 +3543,1598 @@
   </sheetPr>
   <dimension ref="A1:IV44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="4.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="7" style="1" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="30" style="3" width="4.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="7" style="1" width="4.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="33" style="1" width="4"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="37" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-    </row>
-    <row r="2" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="11"/>
-      <c r="FU2" s="13"/>
-      <c r="FV2" s="13"/>
-      <c r="FW2" s="13"/>
-      <c r="FX2" s="13"/>
-      <c r="FY2" s="13"/>
-      <c r="FZ2" s="13"/>
-      <c r="GA2" s="13"/>
-      <c r="GB2" s="13"/>
-      <c r="GC2" s="13"/>
-      <c r="GD2" s="13"/>
-      <c r="GE2" s="13"/>
-      <c r="GF2" s="13"/>
-      <c r="GG2" s="13"/>
-      <c r="GH2" s="13"/>
-      <c r="GI2" s="13"/>
-      <c r="GJ2" s="13"/>
-      <c r="GK2" s="13"/>
-      <c r="GL2" s="13"/>
-      <c r="GM2" s="13"/>
-      <c r="GN2" s="13"/>
-      <c r="GO2" s="13"/>
-      <c r="GP2" s="13"/>
-      <c r="GQ2" s="13"/>
-      <c r="GR2" s="13"/>
-      <c r="GS2" s="13"/>
-      <c r="GT2" s="13"/>
-      <c r="GU2" s="13"/>
-      <c r="GV2" s="13"/>
-      <c r="GW2" s="13"/>
-      <c r="GX2" s="13"/>
-      <c r="GY2" s="13"/>
-      <c r="GZ2" s="13"/>
-      <c r="HA2" s="13"/>
-      <c r="HB2" s="13"/>
-      <c r="HC2" s="13"/>
-      <c r="HD2" s="13"/>
-      <c r="HE2" s="13"/>
-      <c r="HF2" s="13"/>
-      <c r="HG2" s="13"/>
-      <c r="HH2" s="13"/>
-      <c r="HI2" s="13"/>
-      <c r="HJ2" s="13"/>
-      <c r="HK2" s="13"/>
-      <c r="HL2" s="13"/>
-      <c r="HM2" s="13"/>
-      <c r="HN2" s="13"/>
-      <c r="HO2" s="13"/>
-      <c r="HP2" s="13"/>
-      <c r="HQ2" s="13"/>
-      <c r="HR2" s="13"/>
-      <c r="HS2" s="13"/>
-      <c r="HT2" s="13"/>
-      <c r="HU2" s="13"/>
-      <c r="HV2" s="13"/>
-      <c r="HW2" s="13"/>
-      <c r="HX2" s="13"/>
-      <c r="HY2" s="13"/>
-      <c r="HZ2" s="13"/>
-      <c r="IA2" s="13"/>
-      <c r="IB2" s="13"/>
-      <c r="IC2" s="13"/>
-      <c r="ID2" s="13"/>
-      <c r="IE2" s="13"/>
-      <c r="IF2" s="13"/>
-      <c r="IG2" s="13"/>
-      <c r="IH2" s="13"/>
-      <c r="II2" s="13"/>
-      <c r="IJ2" s="13"/>
-      <c r="IK2" s="13"/>
-      <c r="IL2" s="13"/>
-      <c r="IM2" s="13"/>
-      <c r="IN2" s="13"/>
-      <c r="IO2" s="13"/>
-      <c r="IP2" s="13"/>
-      <c r="IQ2" s="13"/>
-      <c r="IR2" s="13"/>
-      <c r="IS2" s="13"/>
-      <c r="IT2" s="13"/>
-      <c r="IU2" s="13"/>
-      <c r="IV2" s="13"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+    </row>
+    <row r="2" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="10"/>
+      <c r="FU2" s="12"/>
+      <c r="FV2" s="12"/>
+      <c r="FW2" s="12"/>
+      <c r="FX2" s="12"/>
+      <c r="FY2" s="12"/>
+      <c r="FZ2" s="12"/>
+      <c r="GA2" s="12"/>
+      <c r="GB2" s="12"/>
+      <c r="GC2" s="12"/>
+      <c r="GD2" s="12"/>
+      <c r="GE2" s="12"/>
+      <c r="GF2" s="12"/>
+      <c r="GG2" s="12"/>
+      <c r="GH2" s="12"/>
+      <c r="GI2" s="12"/>
+      <c r="GJ2" s="12"/>
+      <c r="GK2" s="12"/>
+      <c r="GL2" s="12"/>
+      <c r="GM2" s="12"/>
+      <c r="GN2" s="12"/>
+      <c r="GO2" s="12"/>
+      <c r="GP2" s="12"/>
+      <c r="GQ2" s="12"/>
+      <c r="GR2" s="12"/>
+      <c r="GS2" s="12"/>
+      <c r="GT2" s="12"/>
+      <c r="GU2" s="12"/>
+      <c r="GV2" s="12"/>
+      <c r="GW2" s="12"/>
+      <c r="GX2" s="12"/>
+      <c r="GY2" s="12"/>
+      <c r="GZ2" s="12"/>
+      <c r="HA2" s="12"/>
+      <c r="HB2" s="12"/>
+      <c r="HC2" s="12"/>
+      <c r="HD2" s="12"/>
+      <c r="HE2" s="12"/>
+      <c r="HF2" s="12"/>
+      <c r="HG2" s="12"/>
+      <c r="HH2" s="12"/>
+      <c r="HI2" s="12"/>
+      <c r="HJ2" s="12"/>
+      <c r="HK2" s="12"/>
+      <c r="HL2" s="12"/>
+      <c r="HM2" s="12"/>
+      <c r="HN2" s="12"/>
+      <c r="HO2" s="12"/>
+      <c r="HP2" s="12"/>
+      <c r="HQ2" s="12"/>
+      <c r="HR2" s="12"/>
+      <c r="HS2" s="12"/>
+      <c r="HT2" s="12"/>
+      <c r="HU2" s="12"/>
+      <c r="HV2" s="12"/>
+      <c r="HW2" s="12"/>
+      <c r="HX2" s="12"/>
+      <c r="HY2" s="12"/>
+      <c r="HZ2" s="12"/>
+      <c r="IA2" s="12"/>
+      <c r="IB2" s="12"/>
+      <c r="IC2" s="12"/>
+      <c r="ID2" s="12"/>
+      <c r="IE2" s="12"/>
+      <c r="IF2" s="12"/>
+      <c r="IG2" s="12"/>
+      <c r="IH2" s="12"/>
+      <c r="II2" s="12"/>
+      <c r="IJ2" s="12"/>
+      <c r="IK2" s="12"/>
+      <c r="IL2" s="12"/>
+      <c r="IM2" s="12"/>
+      <c r="IN2" s="12"/>
+      <c r="IO2" s="12"/>
+      <c r="IP2" s="12"/>
+      <c r="IQ2" s="12"/>
+      <c r="IR2" s="12"/>
+      <c r="IS2" s="12"/>
+      <c r="IT2" s="12"/>
+      <c r="IU2" s="12"/>
+      <c r="IV2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="18"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="18"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="19" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="18"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="19" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="18"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="18"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="18"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="18"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="18"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="18"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="18"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="18"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="18"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="18"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="18"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="28" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="18"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="18"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="18"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="18"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="18"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="18"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="18"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="18"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="30" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="30" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="30" t="s">
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="34" t="s">
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AD26" s="32" t="s">
+      <c r="AD26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="18"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="30" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="35" t="n">
-        <v>38487</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="30" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="33" t="n">
+        <v>44232</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="18"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="18"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="18"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="18"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="18"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="18"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="18"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="18"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="34"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="18"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="18"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="18"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="15"/>
-      <c r="AF38" s="18"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="18"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="18"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="18"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="18"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="32"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="18"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="39"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
+      <c r="AE44" s="35"/>
+      <c r="AF44" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5242,145 +5170,145 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="14.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="26.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="36.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="13.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="40" width="50.75"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="40" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="14.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="36.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="38" width="18.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="38" width="50.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="38" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
-        <v>16</v>
+      <c r="A1" s="39" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="E2" s="41" t="s">
         <v>19</v>
       </c>
+      <c r="F2" s="42" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="A3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>23</v>
       </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="A4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>27</v>
       </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47" t="s">
+      <c r="D5" s="43" t="s">
         <v>31</v>
       </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47" t="s">
+      <c r="A6" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="47" t="s">
         <v>35</v>
       </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="50"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="48"/>
     </row>
     <row r="8" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="48"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47" t="s">
+      <c r="A9" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="50"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" customFormat="false" ht="232.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="C10" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="48"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5401,1589 +5329,1561 @@
   </sheetPr>
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="D11" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="D5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="W37" activeCellId="0" sqref="W37"/>
+      <selection pane="bottomLeft" activeCell="AK16" activeCellId="0" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="4.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="7" style="1" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="31" style="3" width="4.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="7" style="1" width="4.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="34" style="1" width="4"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="38" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
+      <c r="A1" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="56" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="55" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="AG2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="53"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="61" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="63" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-    </row>
-    <row r="4" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="65" t="s">
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65" t="s">
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+    </row>
+    <row r="4" s="11" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="11"/>
-      <c r="FV4" s="13"/>
-      <c r="FW4" s="13"/>
-      <c r="FX4" s="13"/>
-      <c r="FY4" s="13"/>
-      <c r="FZ4" s="13"/>
-      <c r="GA4" s="13"/>
-      <c r="GB4" s="13"/>
-      <c r="GC4" s="13"/>
-      <c r="GD4" s="13"/>
-      <c r="GE4" s="13"/>
-      <c r="GF4" s="13"/>
-      <c r="GG4" s="13"/>
-      <c r="GH4" s="13"/>
-      <c r="GI4" s="13"/>
-      <c r="GJ4" s="13"/>
-      <c r="GK4" s="13"/>
-      <c r="GL4" s="13"/>
-      <c r="GM4" s="13"/>
-      <c r="GN4" s="13"/>
-      <c r="GO4" s="13"/>
-      <c r="GP4" s="13"/>
-      <c r="GQ4" s="13"/>
-      <c r="GR4" s="13"/>
-      <c r="GS4" s="13"/>
-      <c r="GT4" s="13"/>
-      <c r="GU4" s="13"/>
-      <c r="GV4" s="13"/>
-      <c r="GW4" s="13"/>
-      <c r="GX4" s="13"/>
-      <c r="GY4" s="13"/>
-      <c r="GZ4" s="13"/>
-      <c r="HA4" s="13"/>
-      <c r="HB4" s="13"/>
-      <c r="HC4" s="13"/>
-      <c r="HD4" s="13"/>
-      <c r="HE4" s="13"/>
-      <c r="HF4" s="13"/>
-      <c r="HG4" s="13"/>
-      <c r="HH4" s="13"/>
-      <c r="HI4" s="13"/>
-      <c r="HJ4" s="13"/>
-      <c r="HK4" s="13"/>
-      <c r="HL4" s="13"/>
-      <c r="HM4" s="13"/>
-      <c r="HN4" s="13"/>
-      <c r="HO4" s="13"/>
-      <c r="HP4" s="13"/>
-      <c r="HQ4" s="13"/>
-      <c r="HR4" s="13"/>
-      <c r="HS4" s="13"/>
-      <c r="HT4" s="13"/>
-      <c r="HU4" s="13"/>
-      <c r="HV4" s="13"/>
-      <c r="HW4" s="13"/>
-      <c r="HX4" s="13"/>
-      <c r="HY4" s="13"/>
-      <c r="HZ4" s="13"/>
-      <c r="IA4" s="13"/>
-      <c r="IB4" s="13"/>
-      <c r="IC4" s="13"/>
-      <c r="ID4" s="13"/>
-      <c r="IE4" s="13"/>
-      <c r="IF4" s="13"/>
-      <c r="IG4" s="13"/>
-      <c r="IH4" s="13"/>
-      <c r="II4" s="13"/>
-      <c r="IJ4" s="13"/>
-      <c r="IK4" s="13"/>
-      <c r="IL4" s="13"/>
-      <c r="IM4" s="13"/>
-      <c r="IN4" s="13"/>
-      <c r="IO4" s="13"/>
-      <c r="IP4" s="13"/>
-      <c r="IQ4" s="13"/>
-      <c r="IR4" s="13"/>
-      <c r="IS4" s="13"/>
-      <c r="IT4" s="13"/>
-      <c r="IU4" s="13"/>
-      <c r="IV4" s="13"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="10"/>
+      <c r="FV4" s="12"/>
+      <c r="FW4" s="12"/>
+      <c r="FX4" s="12"/>
+      <c r="FY4" s="12"/>
+      <c r="FZ4" s="12"/>
+      <c r="GA4" s="12"/>
+      <c r="GB4" s="12"/>
+      <c r="GC4" s="12"/>
+      <c r="GD4" s="12"/>
+      <c r="GE4" s="12"/>
+      <c r="GF4" s="12"/>
+      <c r="GG4" s="12"/>
+      <c r="GH4" s="12"/>
+      <c r="GI4" s="12"/>
+      <c r="GJ4" s="12"/>
+      <c r="GK4" s="12"/>
+      <c r="GL4" s="12"/>
+      <c r="GM4" s="12"/>
+      <c r="GN4" s="12"/>
+      <c r="GO4" s="12"/>
+      <c r="GP4" s="12"/>
+      <c r="GQ4" s="12"/>
+      <c r="GR4" s="12"/>
+      <c r="GS4" s="12"/>
+      <c r="GT4" s="12"/>
+      <c r="GU4" s="12"/>
+      <c r="GV4" s="12"/>
+      <c r="GW4" s="12"/>
+      <c r="GX4" s="12"/>
+      <c r="GY4" s="12"/>
+      <c r="GZ4" s="12"/>
+      <c r="HA4" s="12"/>
+      <c r="HB4" s="12"/>
+      <c r="HC4" s="12"/>
+      <c r="HD4" s="12"/>
+      <c r="HE4" s="12"/>
+      <c r="HF4" s="12"/>
+      <c r="HG4" s="12"/>
+      <c r="HH4" s="12"/>
+      <c r="HI4" s="12"/>
+      <c r="HJ4" s="12"/>
+      <c r="HK4" s="12"/>
+      <c r="HL4" s="12"/>
+      <c r="HM4" s="12"/>
+      <c r="HN4" s="12"/>
+      <c r="HO4" s="12"/>
+      <c r="HP4" s="12"/>
+      <c r="HQ4" s="12"/>
+      <c r="HR4" s="12"/>
+      <c r="HS4" s="12"/>
+      <c r="HT4" s="12"/>
+      <c r="HU4" s="12"/>
+      <c r="HV4" s="12"/>
+      <c r="HW4" s="12"/>
+      <c r="HX4" s="12"/>
+      <c r="HY4" s="12"/>
+      <c r="HZ4" s="12"/>
+      <c r="IA4" s="12"/>
+      <c r="IB4" s="12"/>
+      <c r="IC4" s="12"/>
+      <c r="ID4" s="12"/>
+      <c r="IE4" s="12"/>
+      <c r="IF4" s="12"/>
+      <c r="IG4" s="12"/>
+      <c r="IH4" s="12"/>
+      <c r="II4" s="12"/>
+      <c r="IJ4" s="12"/>
+      <c r="IK4" s="12"/>
+      <c r="IL4" s="12"/>
+      <c r="IM4" s="12"/>
+      <c r="IN4" s="12"/>
+      <c r="IO4" s="12"/>
+      <c r="IP4" s="12"/>
+      <c r="IQ4" s="12"/>
+      <c r="IR4" s="12"/>
+      <c r="IS4" s="12"/>
+      <c r="IT4" s="12"/>
+      <c r="IU4" s="12"/>
+      <c r="IV4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="68"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="64"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="18"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="18"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="13"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="U8" s="69"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="18"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="U8" s="65"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="U9" s="69"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="18"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="U9" s="65"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="U10" s="69"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="U11" s="69"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="U11" s="65"/>
       <c r="W11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="18"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="18"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="13"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="17"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="18"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="13"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="16"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="18"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="18"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="18"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="15"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="13"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="14"/>
       <c r="W18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="18"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="13"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="16"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="18"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="13"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="18"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="13"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="U22" s="69"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="18"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="13"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="U22" s="65"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="U23" s="69"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="18"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="13"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="U23" s="65"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="U24" s="69"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="18"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="13"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="U24" s="65"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="U25" s="69"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="18"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="13"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="U25" s="65"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="U26" s="69"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="13"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="U26" s="65"/>
       <c r="V26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="18"/>
+        <v>62</v>
+      </c>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="U27" s="69"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="13"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="U27" s="65"/>
       <c r="W27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="U28" s="69"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="18"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="13"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="U28" s="65"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="U29" s="69"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="18"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="13"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="U29" s="65"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="18"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="18"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="18"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="18"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="18"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="18"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="18"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="18"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
-      <c r="AF38" s="15"/>
-      <c r="AG38" s="18"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="18"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="18"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="15"/>
-      <c r="AG41" s="18"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="15"/>
-      <c r="AG42" s="18"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="36"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
-      <c r="AA43" s="37"/>
-      <c r="AB43" s="37"/>
-      <c r="AC43" s="37"/>
-      <c r="AD43" s="37"/>
-      <c r="AE43" s="37"/>
-      <c r="AF43" s="37"/>
-      <c r="AG43" s="39"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="35"/>
+      <c r="AG43" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="11">
